--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Gas1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Gas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6210056666666667</v>
+        <v>2.278069333333333</v>
       </c>
       <c r="N2">
-        <v>1.863017</v>
+        <v>6.834208</v>
       </c>
       <c r="O2">
-        <v>0.01187498222035627</v>
+        <v>0.0485719078386547</v>
       </c>
       <c r="P2">
-        <v>0.01187498222035627</v>
+        <v>0.0485719078386547</v>
       </c>
       <c r="Q2">
-        <v>0.01572220746488889</v>
+        <v>0.2001283909333333</v>
       </c>
       <c r="R2">
-        <v>0.141499867184</v>
+        <v>1.8011555184</v>
       </c>
       <c r="S2">
-        <v>0.01187498222035627</v>
+        <v>0.0485719078386547</v>
       </c>
       <c r="T2">
-        <v>0.01187498222035627</v>
+        <v>0.0485719078386547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H3">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +623,22 @@
         <v>116.355767</v>
       </c>
       <c r="O3">
-        <v>0.741658645283922</v>
+        <v>0.8269607233522859</v>
       </c>
       <c r="P3">
-        <v>0.741658645283922</v>
+        <v>0.8269607233522859</v>
       </c>
       <c r="Q3">
-        <v>0.9819392461315554</v>
+        <v>3.407284710316667</v>
       </c>
       <c r="R3">
-        <v>8.837453215183999</v>
+        <v>30.66556239285</v>
       </c>
       <c r="S3">
-        <v>0.741658645283922</v>
+        <v>0.8269607233522859</v>
       </c>
       <c r="T3">
-        <v>0.741658645283922</v>
+        <v>0.8269607233522859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H4">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02436733333333333</v>
+        <v>5.739509333333333</v>
       </c>
       <c r="N4">
-        <v>0.073102</v>
+        <v>17.218528</v>
       </c>
       <c r="O4">
-        <v>0.0004659565373115135</v>
+        <v>0.1223750806433306</v>
       </c>
       <c r="P4">
-        <v>0.0004659565373115135</v>
+        <v>0.1223750806433306</v>
       </c>
       <c r="Q4">
-        <v>0.0006169159004444444</v>
+        <v>0.5042158949333333</v>
       </c>
       <c r="R4">
-        <v>0.005552243104</v>
+        <v>4.537943054399999</v>
       </c>
       <c r="S4">
-        <v>0.0004659565373115135</v>
+        <v>0.1223750806433306</v>
       </c>
       <c r="T4">
-        <v>0.0004659565373115135</v>
+        <v>0.1223750806433306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,19 +714,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H5">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,152 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.64813733333333</v>
+        <v>0.09813033333333333</v>
       </c>
       <c r="N5">
-        <v>37.944412</v>
+        <v>0.294391</v>
       </c>
       <c r="O5">
-        <v>0.2418599604093108</v>
+        <v>0.002092288165728845</v>
       </c>
       <c r="P5">
-        <v>0.2418599604093108</v>
+        <v>0.002092288165728845</v>
       </c>
       <c r="Q5">
-        <v>0.3202171089137777</v>
+        <v>0.008620749783333333</v>
       </c>
       <c r="R5">
-        <v>2.881953980224</v>
+        <v>0.07758674805</v>
       </c>
       <c r="S5">
-        <v>0.2418599604093108</v>
+        <v>0.002092288165728845</v>
       </c>
       <c r="T5">
-        <v>0.2418599604093108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.02531733333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.07595199999999999</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.07215133333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.216454</v>
-      </c>
-      <c r="O6">
-        <v>0.001379690792690027</v>
-      </c>
-      <c r="P6">
-        <v>0.001379690792690027</v>
-      </c>
-      <c r="Q6">
-        <v>0.001826679356444444</v>
-      </c>
-      <c r="R6">
-        <v>0.016440114208</v>
-      </c>
-      <c r="S6">
-        <v>0.001379690792690027</v>
-      </c>
-      <c r="T6">
-        <v>0.001379690792690027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02531733333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.07595199999999999</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.144375</v>
-      </c>
-      <c r="N7">
-        <v>0.433125</v>
-      </c>
-      <c r="O7">
-        <v>0.002760764756409528</v>
-      </c>
-      <c r="P7">
-        <v>0.002760764756409527</v>
-      </c>
-      <c r="Q7">
-        <v>0.00365519</v>
-      </c>
-      <c r="R7">
-        <v>0.03289671</v>
-      </c>
-      <c r="S7">
-        <v>0.002760764756409528</v>
-      </c>
-      <c r="T7">
-        <v>0.002760764756409527</v>
+        <v>0.002092288165728845</v>
       </c>
     </row>
   </sheetData>
